--- a/scraper/top_remaining_spreadsheets_states/top_remaining_FL.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_FL.xlsx
@@ -44,7 +44,7 @@
     <t>LUCKY 7</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>2's FOR THE MONEY</t>
@@ -53,24 +53,24 @@
     <t>$1 MONOPOLY JACKPOT</t>
   </si>
   <si>
+    <t>HEADS OR TAILS</t>
+  </si>
+  <si>
     <t>TRIPLE WIN</t>
   </si>
   <si>
-    <t>HEADS OR TAILS</t>
-  </si>
-  <si>
     <t>TRIPLE PAYOUT</t>
   </si>
   <si>
     <t>CASH ON THE SPOT</t>
   </si>
   <si>
+    <t>$100 IN A FLASH</t>
+  </si>
+  <si>
     <t>MONEY BAGS</t>
   </si>
   <si>
-    <t>$100 IN A FLASH</t>
-  </si>
-  <si>
     <t>$10,000 GOLD RUSH CLASSIC</t>
   </si>
   <si>
@@ -122,15 +122,15 @@
     <t>MONEY ROLL</t>
   </si>
   <si>
+    <t>$50,000 FLAMINGO MULTIPLIER</t>
+  </si>
+  <si>
+    <t>$50,000 GOLD RUSH CLASSIC</t>
+  </si>
+  <si>
     <t>TRIPLE CA$H</t>
   </si>
   <si>
-    <t>$50,000 FLAMINGO MULTIPLIER</t>
-  </si>
-  <si>
-    <t>$50,000 GOLD RUSH CLASSIC</t>
-  </si>
-  <si>
     <t>$2 MONOPOLY JACKPOT</t>
   </si>
   <si>
@@ -206,13 +206,13 @@
     <t>$1,000,000 LUCK</t>
   </si>
   <si>
+    <t>BONUS DOUBLE MATCH</t>
+  </si>
+  <si>
+    <t>WINNING STREAK</t>
+  </si>
+  <si>
     <t>$1,000,000 GOLD RUSH CLASSIC</t>
-  </si>
-  <si>
-    <t>BONUS DOUBLE MATCH</t>
-  </si>
-  <si>
-    <t>WINNING STREAK</t>
   </si>
   <si>
     <t>$500,000! CASH BLAST</t>
@@ -720,7 +720,7 @@
         <v>1388</v>
       </c>
       <c r="E4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -737,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1360</v>
+        <v>1395</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -757,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1395</v>
+        <v>1360</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -817,10 +817,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1412</v>
+        <v>1380</v>
       </c>
       <c r="E9">
-        <v>393</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -837,10 +837,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1380</v>
+        <v>1412</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>372</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>1408</v>
       </c>
       <c r="E11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1177,10 +1177,10 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>1413</v>
+        <v>1297</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1197,10 +1197,10 @@
         <v>36</v>
       </c>
       <c r="D28">
-        <v>1297</v>
+        <v>1409</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1217,10 +1217,10 @@
         <v>37</v>
       </c>
       <c r="D29">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="E29">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1394,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>1386</v>
@@ -1500,7 +1500,7 @@
         <v>1371</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1737,10 +1737,10 @@
         <v>63</v>
       </c>
       <c r="D55">
-        <v>1410</v>
+        <v>1348</v>
       </c>
       <c r="E55">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1757,10 +1757,10 @@
         <v>64</v>
       </c>
       <c r="D56">
-        <v>1348</v>
+        <v>1302</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1777,10 +1777,10 @@
         <v>65</v>
       </c>
       <c r="D57">
-        <v>1302</v>
+        <v>1410</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_FL.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_FL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>LUCKY 7</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>2's FOR THE MONEY</t>
@@ -53,10 +53,22 @@
     <t>$1 MONOPOLY JACKPOT</t>
   </si>
   <si>
+    <t>MONEY BAGS</t>
+  </si>
+  <si>
+    <t>TRIPLE WIN</t>
+  </si>
+  <si>
+    <t>TRIPLE IT!</t>
+  </si>
+  <si>
     <t>HEADS OR TAILS</t>
   </si>
   <si>
-    <t>TRIPLE WIN</t>
+    <t>$100 IN A FLASH</t>
+  </si>
+  <si>
+    <t>$10,000 GOLD RUSH CLASSIC</t>
   </si>
   <si>
     <t>TRIPLE PAYOUT</t>
@@ -65,27 +77,18 @@
     <t>CASH ON THE SPOT</t>
   </si>
   <si>
-    <t>$100 IN A FLASH</t>
-  </si>
-  <si>
-    <t>MONEY BAGS</t>
-  </si>
-  <si>
-    <t>$10,000 GOLD RUSH CLASSIC</t>
-  </si>
-  <si>
     <t>SILVER DOLLAR</t>
   </si>
   <si>
+    <t>DICE DOUBLER</t>
+  </si>
+  <si>
+    <t>VERY CHERRY</t>
+  </si>
+  <si>
     <t>FLORIDA 5X THE CASH</t>
   </si>
   <si>
-    <t>DICE DOUBLER</t>
-  </si>
-  <si>
-    <t>VERY CHERRY</t>
-  </si>
-  <si>
     <t>Silver &amp; Gold</t>
   </si>
   <si>
@@ -104,42 +107,45 @@
     <t>$1,000 A WEEK FOR LIFE</t>
   </si>
   <si>
+    <t>$50,000 Holiday Bonus</t>
+  </si>
+  <si>
     <t>NEON 7's</t>
   </si>
   <si>
     <t>$50,000 GOLD RUSH</t>
   </si>
   <si>
-    <t>$50,000 Holiday Bonus</t>
+    <t>2019 NEW YEAR'S DOUBLER</t>
+  </si>
+  <si>
+    <t>MONEY ROLL</t>
+  </si>
+  <si>
+    <t>$50,000 FLAMINGO MULTIPLIER</t>
+  </si>
+  <si>
+    <t>CASH MULTIPLIER</t>
+  </si>
+  <si>
+    <t>$50,000 GOLD RUSH CLASSIC</t>
+  </si>
+  <si>
+    <t>TRIPLE CA$H</t>
+  </si>
+  <si>
+    <t>$2 MONOPOLY JACKPOT</t>
+  </si>
+  <si>
+    <t>$50,000 GOLD RUSH DOUBLER</t>
   </si>
   <si>
     <t>JOKER'S WILD</t>
   </si>
   <si>
-    <t>2019 NEW YEAR'S DOUBLER</t>
-  </si>
-  <si>
-    <t>MONEY ROLL</t>
-  </si>
-  <si>
-    <t>$50,000 FLAMINGO MULTIPLIER</t>
-  </si>
-  <si>
-    <t>$50,000 GOLD RUSH CLASSIC</t>
-  </si>
-  <si>
-    <t>TRIPLE CA$H</t>
-  </si>
-  <si>
-    <t>$2 MONOPOLY JACKPOT</t>
-  </si>
-  <si>
     <t>$30 GRAND</t>
   </si>
   <si>
-    <t>$50,000 GOLD RUSH DOUBLER</t>
-  </si>
-  <si>
     <t>WIN ALL!</t>
   </si>
   <si>
@@ -176,69 +182,72 @@
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>POWER 5S</t>
+  </si>
+  <si>
     <t>$500,000 GOLD RUSH</t>
   </si>
   <si>
-    <t>POWER 5S</t>
-  </si>
-  <si>
     <t>MONEY MONEY MONEY</t>
   </si>
   <si>
+    <t>$5 MONOPOLY JACKPOT</t>
+  </si>
+  <si>
     <t>$1,000,000 Holiday Bonus</t>
   </si>
   <si>
+    <t>$500,000 PAYDAY</t>
+  </si>
+  <si>
+    <t>THE PRICE IS RIGHT</t>
+  </si>
+  <si>
     <t>PAC-MAN</t>
   </si>
   <si>
-    <t>THE PRICE IS RIGHT</t>
+    <t>MONEY MACHINE</t>
   </si>
   <si>
     <t>$500,000 FLAMINGO MULTIPLIER</t>
   </si>
   <si>
-    <t>$5 MONOPOLY JACKPOT</t>
-  </si>
-  <si>
-    <t>MONEY MACHINE</t>
-  </si>
-  <si>
     <t>$1,000,000 LUCK</t>
   </si>
   <si>
+    <t>$500,000 CROSSWORD EXTRA PLAY</t>
+  </si>
+  <si>
     <t>BONUS DOUBLE MATCH</t>
   </si>
   <si>
+    <t>$1,000,000 GOLD RUSH CLASSIC</t>
+  </si>
+  <si>
+    <t>LUCKY 13</t>
+  </si>
+  <si>
+    <t>LOTERIA GRANDE</t>
+  </si>
+  <si>
+    <t>CASH RESERVE</t>
+  </si>
+  <si>
+    <t>TOPAZ 10's</t>
+  </si>
+  <si>
+    <t>MAXIMUM MONEY</t>
+  </si>
+  <si>
+    <t>ESCAPE TO MARGARITAVILLE</t>
+  </si>
+  <si>
     <t>WINNING STREAK</t>
   </si>
   <si>
-    <t>$1,000,000 GOLD RUSH CLASSIC</t>
-  </si>
-  <si>
     <t>$500,000! CASH BLAST</t>
   </si>
   <si>
-    <t>LUCKY 13</t>
-  </si>
-  <si>
-    <t>LOTERIA GRANDE</t>
-  </si>
-  <si>
-    <t>CASH RESERVE</t>
-  </si>
-  <si>
-    <t>$500,000 PAYDAY</t>
-  </si>
-  <si>
-    <t>TOPAZ 10's</t>
-  </si>
-  <si>
-    <t>ESCAPE TO MARGARITAVILLE</t>
-  </si>
-  <si>
-    <t>MAXIMUM MONEY</t>
-  </si>
-  <si>
     <t>$500,000 GOLD RUSH DOUBLER</t>
   </si>
   <si>
@@ -254,21 +263,24 @@
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>$2,000,000 GOLD RUSH DOUBLER</t>
+  </si>
+  <si>
+    <t>$2,000,000 Holiday Bonus</t>
+  </si>
+  <si>
     <t>$2,000,000 24 KARAT CASH</t>
   </si>
   <si>
-    <t>$2,000,000 GOLD RUSH DOUBLER</t>
-  </si>
-  <si>
-    <t>$2,000,000 Holiday Bonus</t>
+    <t>$2,000,000 GOLD RUSH CLASSIC</t>
+  </si>
+  <si>
+    <t>$50, $100 AND $500 BLOWOUT!</t>
   </si>
   <si>
     <t>$10 MONOPOLY JACKPOT</t>
   </si>
   <si>
-    <t>$2,000,000 GOLD RUSH CLASSIC</t>
-  </si>
-  <si>
     <t>FLORIDA 50X THE CASH</t>
   </si>
   <si>
@@ -287,10 +299,10 @@
     <t>$20 MONOPOLY JACKPOT</t>
   </si>
   <si>
+    <t>Lucky $200,000 A Year For Life</t>
+  </si>
+  <si>
     <t>$5,000,000 GOLD RUSH CLASSIC</t>
-  </si>
-  <si>
-    <t>Lucky $200,000 A Year For Life</t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -638,7 +650,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +692,7 @@
         <v>1392</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -720,7 +732,7 @@
         <v>1388</v>
       </c>
       <c r="E4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -737,10 +749,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1395</v>
+        <v>1412</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -777,10 +789,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1376</v>
+        <v>1416</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -797,10 +809,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>1342</v>
+        <v>1395</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -837,10 +849,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="E10">
-        <v>372</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -857,10 +869,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1408</v>
+        <v>1376</v>
       </c>
       <c r="E11">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -877,10 +889,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1369</v>
+        <v>1342</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -897,10 +909,10 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -957,10 +969,10 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>1404</v>
+        <v>1372</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -977,10 +989,10 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -997,10 +1009,10 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>1332</v>
+        <v>1399</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1011,16 +1023,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
       <c r="D19">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1031,16 +1043,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1051,16 +1063,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>1381</v>
+        <v>1351</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1071,16 +1083,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>1259</v>
+        <v>1400</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1091,16 +1103,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>1400</v>
+        <v>1381</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1111,16 +1123,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>5014</v>
+        <v>1403</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1131,16 +1143,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>1405</v>
+        <v>1259</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1151,16 +1163,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>1361</v>
+        <v>1405</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1171,16 +1183,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>1297</v>
+        <v>1361</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1191,16 +1203,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>1409</v>
+        <v>1297</v>
       </c>
       <c r="E28">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1211,16 +1223,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>1413</v>
+        <v>5015</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1231,16 +1243,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1251,16 +1263,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
       <c r="D31">
-        <v>1389</v>
+        <v>1413</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1271,16 +1283,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
       <c r="D32">
-        <v>1343</v>
+        <v>1389</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1291,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1311,16 +1323,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
       <c r="D34">
-        <v>1396</v>
+        <v>5014</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1331,13 +1343,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1351,16 +1363,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
       <c r="D36">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1371,16 +1383,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
       <c r="D37">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1391,16 +1403,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1411,16 +1423,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1431,16 +1443,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>1327</v>
+        <v>1386</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1451,16 +1463,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1471,16 +1483,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
       </c>
       <c r="D42">
-        <v>1393</v>
+        <v>1327</v>
       </c>
       <c r="E42">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1491,16 +1503,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
       </c>
       <c r="D43">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1511,16 +1523,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
       </c>
       <c r="D44">
-        <v>1317</v>
+        <v>1393</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1531,16 +1543,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
       <c r="D45">
-        <v>1260</v>
+        <v>1371</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1551,16 +1563,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>5013</v>
+        <v>1317</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1571,13 +1583,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
       </c>
       <c r="D47">
-        <v>1331</v>
+        <v>5013</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -1591,16 +1603,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
       </c>
       <c r="D48">
-        <v>1401</v>
+        <v>1260</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1611,16 +1623,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
       </c>
       <c r="D49">
-        <v>7017</v>
+        <v>1331</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1631,13 +1643,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>58</v>
       </c>
       <c r="D50">
-        <v>1382</v>
+        <v>1390</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1651,16 +1663,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
       </c>
       <c r="D51">
-        <v>1298</v>
+        <v>1401</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1671,13 +1683,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
       </c>
       <c r="D52">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1691,16 +1703,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
       </c>
       <c r="D53">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1711,16 +1723,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>62</v>
       </c>
       <c r="D54">
-        <v>1414</v>
+        <v>7017</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1731,16 +1743,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
       </c>
       <c r="D55">
-        <v>1348</v>
+        <v>1378</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1751,13 +1763,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
       </c>
       <c r="D56">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E56">
         <v>7</v>
@@ -1771,16 +1783,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
       </c>
       <c r="D57">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1791,16 +1803,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
         <v>66</v>
       </c>
       <c r="D58">
-        <v>1406</v>
+        <v>1417</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1811,16 +1823,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
         <v>67</v>
       </c>
       <c r="D59">
-        <v>1364</v>
+        <v>1348</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1831,16 +1843,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
       </c>
       <c r="D60">
-        <v>1341</v>
+        <v>1410</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1851,16 +1863,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
         <v>69</v>
       </c>
       <c r="D61">
-        <v>1338</v>
+        <v>1364</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1871,16 +1883,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
         <v>70</v>
       </c>
       <c r="D62">
-        <v>1397</v>
+        <v>1341</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1891,13 +1903,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
         <v>71</v>
       </c>
       <c r="D63">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -1911,16 +1923,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
         <v>72</v>
       </c>
       <c r="D64">
-        <v>1245</v>
+        <v>1349</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1931,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
         <v>73</v>
@@ -1951,16 +1963,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
         <v>74</v>
       </c>
       <c r="D66">
-        <v>1334</v>
+        <v>1245</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1971,16 +1983,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
         <v>75</v>
       </c>
       <c r="D67">
-        <v>1344</v>
+        <v>1302</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1991,16 +2003,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
         <v>76</v>
       </c>
       <c r="D68">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2011,16 +2023,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
         <v>77</v>
       </c>
       <c r="D69">
-        <v>1374</v>
+        <v>1334</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2031,16 +2043,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
         <v>78</v>
       </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
       <c r="D70">
-        <v>1383</v>
+        <v>1344</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2051,16 +2063,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71">
-        <v>1335</v>
+        <v>1394</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2071,16 +2083,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D72">
-        <v>1402</v>
+        <v>1374</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2091,16 +2103,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>82</v>
       </c>
       <c r="D73">
-        <v>1391</v>
+        <v>1335</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2111,16 +2123,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>83</v>
       </c>
       <c r="D74">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2131,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
         <v>84</v>
       </c>
       <c r="D75">
-        <v>1375</v>
+        <v>1383</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2151,16 +2163,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
         <v>85</v>
       </c>
       <c r="D76">
-        <v>1359</v>
+        <v>1411</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2171,16 +2183,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
       </c>
       <c r="D77">
-        <v>5012</v>
+        <v>1418</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>16071</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2191,13 +2203,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
       <c r="D78">
-        <v>1362</v>
+        <v>1391</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -2211,16 +2223,16 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D79">
-        <v>1398</v>
+        <v>1375</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2231,16 +2243,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D80">
-        <v>1407</v>
+        <v>1359</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2251,16 +2263,16 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D81">
-        <v>1048</v>
+        <v>5012</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2271,13 +2283,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
         <v>92</v>
       </c>
-      <c r="C82" t="s">
-        <v>93</v>
-      </c>
       <c r="D82">
-        <v>1379</v>
+        <v>1362</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2291,18 +2303,98 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83">
+        <v>1398</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
         <v>94</v>
       </c>
-      <c r="D83">
+      <c r="D84">
+        <v>1048</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85">
+        <v>1407</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86">
+        <v>1379</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87">
         <v>1415</v>
       </c>
-      <c r="E83">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
         <v>9</v>
       </c>
     </row>
